--- a/Obs_Model_estimates.xlsx
+++ b/Obs_Model_estimates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/f103457/surfdrive/GalapagosAnalysis/Analysis/Projects/Model_epibionts/SouthAmerica_Epibionts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D60AAE-5BFF-0242-9B7F-29E7A4C49BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AA8972-154F-B34F-AB61-50C7599957D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="65">
   <si>
     <t>Country</t>
   </si>
@@ -40,9 +40,15 @@
     <t>Estimate</t>
   </si>
   <si>
+    <t>Old</t>
+  </si>
+  <si>
     <t>Label</t>
   </si>
   <si>
+    <t>model estimate</t>
+  </si>
+  <si>
     <t>México</t>
   </si>
   <si>
@@ -61,9 +67,6 @@
     <t>Salahua</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>Guatemala</t>
   </si>
   <si>
@@ -212,23 +215,16 @@
   </si>
   <si>
     <t>Taharoa</t>
-  </si>
-  <si>
-    <t>Previous model estimate</t>
-  </si>
-  <si>
-    <t>Updated model estimate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,22 +236,20 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -285,16 +279,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,20 +592,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,21 +628,21 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>31.832713324276298</v>
@@ -659,27 +654,27 @@
         <v>43794</v>
       </c>
       <c r="G2">
+        <v>2.7</v>
+      </c>
+      <c r="H2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>28.845683551955599</v>
@@ -691,27 +686,27 @@
         <v>43757</v>
       </c>
       <c r="G3">
+        <v>2.1</v>
+      </c>
+      <c r="H3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4">
-        <v>35.253968253968253</v>
-      </c>
-      <c r="J3" s="3">
-        <v>24.73544973544973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>4.2486772486772493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>25.9694828971341</v>
@@ -723,27 +718,27 @@
         <v>43566</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0.1</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4">
-        <v>8.7989417989417991</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1.534391534391534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>2.1164021164021159E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>19.0942789073653</v>
@@ -755,27 +750,27 @@
         <v>43799</v>
       </c>
       <c r="G5">
+        <v>0.6</v>
+      </c>
+      <c r="H5">
         <v>3.2</v>
       </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="4">
-        <v>12.33862433862434</v>
-      </c>
-      <c r="J5" s="3">
-        <v>8.5978835978835981</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>0.90476190476190488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>13.9268401389169</v>
@@ -787,27 +782,27 @@
         <v>43731</v>
       </c>
       <c r="G6">
+        <v>5.3</v>
+      </c>
+      <c r="H6">
         <v>5.2</v>
       </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2.25925925925926</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.1111111111111109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>13.9156188245704</v>
@@ -819,27 +814,27 @@
         <v>43768</v>
       </c>
       <c r="G7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H7">
         <v>15.1</v>
       </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.2592592592592593</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>13.2932152138874</v>
@@ -851,27 +846,27 @@
         <v>43596</v>
       </c>
       <c r="G8">
+        <v>11.2</v>
+      </c>
+      <c r="H8">
         <v>11.3</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.75661375661375663</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.32804232804232802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>13.1920816257536</v>
@@ -883,27 +878,27 @@
         <v>43796</v>
       </c>
       <c r="G9">
+        <v>3.2</v>
+      </c>
+      <c r="H9">
         <v>16.100000000000001</v>
       </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>11.6628328667737</v>
@@ -915,60 +910,59 @@
         <v>43769</v>
       </c>
       <c r="G10">
+        <v>1.4</v>
+      </c>
+      <c r="H10">
         <v>3.9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <v>22.73544973544973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="I10" s="4">
-        <v>67.269841269841265</v>
-      </c>
-      <c r="J10" s="3">
-        <v>58.613756613756607</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4">
         <v>10.4475557416744</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>-85.773200307730093</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <v>43749</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="5">
-        <v>43.06878306878307</v>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="J11" s="4">
-        <v>39.777777777777779</v>
-      </c>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>21.74074074074074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>10.400947199999999</v>
@@ -980,28 +974,27 @@
         <v>43749</v>
       </c>
       <c r="G12">
+        <v>6.5</v>
+      </c>
+      <c r="H12">
         <v>25.8</v>
       </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="5">
-        <v>43.06878306878307</v>
-      </c>
-      <c r="J12" s="4">
-        <v>39.777777777777779</v>
-      </c>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>21.74074074074074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>10.326233081802499</v>
@@ -1013,27 +1006,27 @@
         <v>43627</v>
       </c>
       <c r="G13">
+        <v>7.9</v>
+      </c>
+      <c r="H13">
         <v>30.2</v>
       </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="4">
-        <v>49.126984126984119</v>
-      </c>
-      <c r="J13" s="3">
-        <v>47.423280423280417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>38.783068783068792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>9.6007653744956194</v>
@@ -1045,27 +1038,27 @@
         <v>43567</v>
       </c>
       <c r="G14">
+        <v>15.7</v>
+      </c>
+      <c r="H14">
         <v>17.3</v>
       </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="4">
-        <v>97.915343915343939</v>
-      </c>
-      <c r="J14" s="3">
-        <v>96.555555555555571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>89.238095238095241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>9.9785186146220006</v>
@@ -1077,27 +1070,27 @@
         <v>43759</v>
       </c>
       <c r="G15">
+        <v>9.1</v>
+      </c>
+      <c r="H15">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="4">
-        <v>71.973544973544989</v>
-      </c>
-      <c r="J15" s="3">
-        <v>62.624338624338641</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <v>46.084656084656089</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>10.055347589076099</v>
@@ -1111,13 +1104,13 @@
       <c r="G16">
         <v>0.5</v>
       </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
     </row>
@@ -1126,10 +1119,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>9.6160238202688895</v>
@@ -1141,16 +1134,16 @@
         <v>43760</v>
       </c>
       <c r="G17">
+        <v>2.9</v>
+      </c>
+      <c r="H17">
         <v>4</v>
       </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="4">
-        <v>43.195767195767203</v>
-      </c>
-      <c r="J17" s="3">
-        <v>34.211640211640223</v>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>22.862433862433861</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1158,10 +1151,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>9.1827847394337407</v>
@@ -1173,16 +1166,16 @@
         <v>43764</v>
       </c>
       <c r="G18">
+        <v>6.5</v>
+      </c>
+      <c r="H18">
         <v>7.5</v>
       </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="4">
-        <v>71.169312169312178</v>
-      </c>
-      <c r="J18" s="3">
-        <v>25.592592592592592</v>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>13.164021164021159</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1190,10 +1183,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>8.1707318093116594</v>
@@ -1205,15 +1198,15 @@
         <v>43766</v>
       </c>
       <c r="G19">
+        <v>9.1</v>
+      </c>
+      <c r="H19">
         <v>12.4</v>
       </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="4">
-        <v>68.052910052910065</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
     </row>
@@ -1222,10 +1215,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <v>7.5529256901091797</v>
@@ -1237,16 +1230,16 @@
         <v>43767</v>
       </c>
       <c r="G20">
+        <v>0.8</v>
+      </c>
+      <c r="H20">
         <v>1.7</v>
       </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="4">
-        <v>5.6031746031746037</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0.99470899470899465</v>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1254,10 +1247,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21">
         <v>7.4501435535571296</v>
@@ -1269,16 +1262,16 @@
         <v>43767</v>
       </c>
       <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
         <v>16.399999999999999</v>
       </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="4">
-        <v>8.28042328042328</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1.0846560846560851</v>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1286,10 +1279,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>3.5662930128720398</v>
@@ -1301,16 +1294,16 @@
         <v>43749</v>
       </c>
       <c r="G22">
+        <v>5.5</v>
+      </c>
+      <c r="H22">
         <v>4.8</v>
       </c>
-      <c r="H22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="4">
-        <v>91.50793650793652</v>
-      </c>
-      <c r="J22" s="3">
-        <v>88.825396825396837</v>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22">
+        <v>34.523809523809533</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1318,10 +1311,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23">
         <v>6.2649791624298397</v>
@@ -1333,16 +1326,16 @@
         <v>43789</v>
       </c>
       <c r="G23">
+        <v>1.6</v>
+      </c>
+      <c r="H23">
         <v>1.3</v>
       </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="4">
-        <v>49.291005291005277</v>
-      </c>
-      <c r="J23" s="3">
-        <v>48.857142857142847</v>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>38.523809523809518</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1350,10 +1343,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <v>3.83165822102259</v>
@@ -1367,14 +1360,14 @@
       <c r="G24">
         <v>2.8</v>
       </c>
-      <c r="H24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.41269841269841268</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1.058201058201058E-2</v>
+      <c r="H24">
+        <v>2.8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1382,10 +1375,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25">
         <v>6.111936</v>
@@ -1399,14 +1392,14 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="4">
-        <v>99.95767195767192</v>
-      </c>
-      <c r="J25" s="3">
-        <v>99.915343915343897</v>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25">
+        <v>96.56613756613757</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1414,10 +1407,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>-0.52397734214832603</v>
@@ -1429,15 +1422,15 @@
         <v>43477</v>
       </c>
       <c r="G26">
+        <v>0.3</v>
+      </c>
+      <c r="H26">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26">
         <v>0</v>
       </c>
     </row>
@@ -1446,10 +1439,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27">
         <v>-1.2346169898267401</v>
@@ -1461,16 +1454,16 @@
         <v>43754</v>
       </c>
       <c r="G27">
+        <v>1.7</v>
+      </c>
+      <c r="H27">
         <v>4.8</v>
       </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="4">
-        <v>36.222222222222221</v>
-      </c>
-      <c r="J27" s="3">
-        <v>35.603174603174587</v>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <v>24.566137566137559</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1478,10 +1471,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28">
         <v>-1.0269120098661</v>
@@ -1493,16 +1486,16 @@
         <v>43788</v>
       </c>
       <c r="G28">
+        <v>0.5</v>
+      </c>
+      <c r="H28">
         <v>1.4</v>
       </c>
-      <c r="H28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="4">
-        <v>45.915343915343932</v>
-      </c>
-      <c r="J28" s="3">
-        <v>41.746031746031761</v>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28">
+        <v>22.835978835978839</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1510,10 +1503,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29">
         <v>-1.9408523116113601</v>
@@ -1525,16 +1518,16 @@
         <v>43797</v>
       </c>
       <c r="G29">
+        <v>0.9</v>
+      </c>
+      <c r="H29">
         <v>0.6</v>
       </c>
-      <c r="H29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="4">
-        <v>47.476190476190482</v>
-      </c>
-      <c r="J29" s="3">
-        <v>42.31216931216931</v>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <v>24.677248677248681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1542,10 +1535,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30">
         <v>-2.6254099655518699</v>
@@ -1557,16 +1550,16 @@
         <v>43756</v>
       </c>
       <c r="G30">
+        <v>2.5</v>
+      </c>
+      <c r="H30">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="4">
-        <v>75.968253968254004</v>
-      </c>
-      <c r="J30" s="3">
-        <v>70.105820105820143</v>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30">
+        <v>63.111111111111121</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1574,10 +1567,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31">
         <v>-2.7013123887655701</v>
@@ -1589,16 +1582,16 @@
         <v>43763</v>
       </c>
       <c r="G31">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H31">
         <v>9.9</v>
       </c>
-      <c r="H31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="4">
-        <v>34.677248677248691</v>
-      </c>
-      <c r="J31" s="3">
-        <v>31.6084656084656</v>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31">
+        <v>23.06878306878307</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1606,10 +1599,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D32">
         <v>-4.1725530622782498</v>
@@ -1623,14 +1616,14 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="4">
-        <v>15.206349206349209</v>
-      </c>
-      <c r="J32" s="3">
-        <v>10.291005291005289</v>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32">
+        <v>2.116402116402117E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1638,10 +1631,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33">
         <v>-12.2882413703724</v>
@@ -1653,15 +1646,15 @@
         <v>43719</v>
       </c>
       <c r="G33">
+        <v>0.5</v>
+      </c>
+      <c r="H33">
         <v>0.1</v>
       </c>
-      <c r="H33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33">
         <v>0</v>
       </c>
     </row>
@@ -1670,10 +1663,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D34">
         <v>-12.6851010398215</v>
@@ -1685,15 +1678,15 @@
         <v>43787</v>
       </c>
       <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
         <v>7.2</v>
       </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34">
         <v>0</v>
       </c>
     </row>
@@ -1702,10 +1695,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35">
         <v>-12.2310973932036</v>
@@ -1719,45 +1712,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36">
+      <c r="B36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="4">
         <v>-11.5815498216694</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
         <v>-77.271517335836094</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="5">
         <v>43815</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="4">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1766,10 +1759,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D37">
         <v>-29.958733135324302</v>
@@ -1781,16 +1774,16 @@
         <v>43796</v>
       </c>
       <c r="G37">
+        <v>1.6</v>
+      </c>
+      <c r="H37">
         <v>3</v>
       </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="4">
-        <v>8.5714285714285712</v>
-      </c>
-      <c r="J37" s="3">
-        <v>6.6190476190476177</v>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37">
+        <v>0.2592592592592593</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1798,10 +1791,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D38">
         <v>-45.386834452032502</v>
@@ -1815,13 +1808,13 @@
       <c r="G38">
         <v>0.2</v>
       </c>
-      <c r="H38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="4">
-        <v>7.0687830687830688</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="H38">
+        <v>0.2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38">
         <v>0</v>
       </c>
     </row>
@@ -1830,10 +1823,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39">
         <v>-38.813879264601702</v>
@@ -1847,14 +1840,14 @@
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="4">
-        <v>4.6031746031746028</v>
-      </c>
-      <c r="J39" s="3">
-        <v>3.0264550264550261</v>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39">
+        <v>0.75132275132275139</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -1862,10 +1855,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D40">
         <v>-36.766414342599397</v>
@@ -1877,15 +1870,15 @@
         <v>43797</v>
       </c>
       <c r="G40">
+        <v>1.4</v>
+      </c>
+      <c r="H40">
         <v>8.6</v>
       </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="4">
-        <v>43.211640211640209</v>
-      </c>
-      <c r="J40" s="3">
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40">
         <v>0</v>
       </c>
     </row>
@@ -1894,10 +1887,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D41">
         <v>-23.585120573276001</v>
@@ -1911,142 +1904,142 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="4">
+        <v>-0.44383048329522501</v>
+      </c>
+      <c r="E42" s="4">
+        <v>-90.284296091113404</v>
+      </c>
+      <c r="F42" s="5">
+        <v>43764</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="4">
+        <v>12.116402116402121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42">
-        <v>-0.44383048329522501</v>
-      </c>
-      <c r="E42">
-        <v>-90.284296091113404</v>
-      </c>
-      <c r="F42" s="2">
-        <v>43764</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I42" s="4">
-        <v>38.386243386243393</v>
-      </c>
-      <c r="J42" s="3">
-        <v>17.095238095238091</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43">
+      <c r="B43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="4">
         <v>-0.76105339418646401</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <v>-90.3330022287318</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="5">
         <v>43762</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>25</v>
-      </c>
-      <c r="I43" s="4">
-        <v>29.793650793650801</v>
-      </c>
-      <c r="J43" s="3">
-        <v>9.6137566137566157</v>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="4">
+        <v>2.074074074074074</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44">
+      <c r="B44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="4">
         <v>-0.75262255789574495</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <v>-90.311137514368895</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="5">
         <v>43567</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>25</v>
-      </c>
-      <c r="I44" s="4">
-        <v>94.661375661375658</v>
-      </c>
-      <c r="J44" s="3">
-        <v>73.62433862433862</v>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="4">
+        <v>38.359788359788347</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45">
+      <c r="B45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="4">
         <v>-27.093324564170899</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <v>-109.280381935449</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="5">
         <v>43780</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
         <v>28.7</v>
       </c>
-      <c r="H45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="4">
-        <v>99.931216931216966</v>
-      </c>
-      <c r="J45" s="3">
-        <v>99.042328042328023</v>
+      <c r="I45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="4">
+        <v>79.423280423280403</v>
       </c>
     </row>
   </sheetData>
